--- a/docs/odh/shr-core-Location-model.xlsx
+++ b/docs/odh/shr-core-Location-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="103">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Location-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Location-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-Location-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,17 +205,13 @@
     <t>shr-core-Location-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model]]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547538
-</t>
-  </si>
-  <si>
     <t>shr-core-Location-model.operationalStatus</t>
   </si>
   <si>
@@ -232,18 +224,14 @@
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>shr-core-Location-model.locationName</t>
+    <t>shr-core-Location-model.name</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The DBA (doing business as) or most commonly-used name for a facility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C3261404
-</t>
+    <t>The name as plain unstructured or semi-structured text.</t>
   </si>
   <si>
     <t>shr-core-Location-model.alias</t>
@@ -258,14 +246,10 @@
     <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0947611
-</t>
-  </si>
-  <si>
     <t>shr-core-Location-model.mode</t>
   </si>
   <si>
-    <t>Indicates whether a resource instance represents a specific item or a class of items.</t>
+    <t>Mode indicates whether a resource instance represents a specific item or a class of items, an actual or potential event, an instance or definition, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-mode</t>
@@ -290,79 +274,69 @@
     <t>shr-core-Location-model.contactPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>An electronic means of contacting an organization or individual.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2986441
+    <t>shr-core-Location-model.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Address-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Location-model.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Address-model {[]} {[]}
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
+  </si>
+  <si>
+    <t>shr-core-Location-model.physicalType</t>
+  </si>
+  <si>
+    <t>Physical form of the location, e.g. building, room, vehicle, road.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+  </si>
+  <si>
+    <t>shr-core-Location-model.geoposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Geoposition-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0682130
+    <t>The location on the surface of the Earth, described by a latitude and longitude (and optional altitude).</t>
+  </si>
+  <si>
+    <t>shr-core-Location-model.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Location-model.physicalType</t>
-  </si>
-  <si>
-    <t>Physical form of the location, e.g. building, room, vehicle, road.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
-  </si>
-  <si>
-    <t>shr-core-Location-model.geoposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Geoposition-model {[]} {[]}
+    <t>The organization that manages a patient, activity, facility, document, or service provision.</t>
+  </si>
+  <si>
+    <t>shr-core-Location-model.hoursOfOperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-HoursOfOperation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The location on the surface of the Earth, described by a latitude and longitude (and optional altitude).</t>
-  </si>
-  <si>
-    <t>shr-core-Location-model.mobileFacility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A facility that moves from place to place, such as Meals-On-Wheels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0231435
-</t>
-  </si>
-  <si>
-    <t>shr-core-Location-model.managingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ManagingOrganization-model]]}
-</t>
-  </si>
-  <si>
-    <t>The organization that manages an activity, facility, document, or service provision.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0677351
-</t>
+    <t>What days/times during a week is this location usually open.</t>
+  </si>
+  <si>
+    <t>shr-core-Location-model.availabilityExceptions</t>
+  </si>
+  <si>
+    <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -923,7 +897,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -955,7 +929,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -978,13 +952,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1035,7 +1009,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1052,7 +1026,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1075,13 +1049,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1132,7 +1106,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1149,7 +1123,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1175,10 +1149,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1205,11 +1179,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1227,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1244,7 +1218,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1267,13 +1241,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1324,7 +1298,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1341,7 +1315,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1364,13 +1338,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1406,7 +1380,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1421,7 +1395,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1438,7 +1412,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1464,10 +1438,10 @@
         <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1494,11 +1468,11 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>36</v>
@@ -1516,7 +1490,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1533,7 +1507,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1556,13 +1530,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1598,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1613,7 +1587,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1630,7 +1604,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1653,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1710,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1727,7 +1701,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1750,13 +1724,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1792,7 +1766,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1807,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1824,7 +1798,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1850,10 +1824,10 @@
         <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1880,11 +1854,11 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>36</v>
@@ -1902,7 +1876,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -1919,7 +1893,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1945,10 +1919,10 @@
         <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1975,14 +1949,14 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -1997,7 +1971,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2014,7 +1988,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2037,13 +2011,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2079,7 +2053,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2094,7 +2068,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2111,7 +2085,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2134,13 +2108,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2176,7 +2150,7 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2191,7 +2165,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2208,7 +2182,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2234,10 +2208,10 @@
         <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2264,11 +2238,11 @@
         <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>36</v>
@@ -2286,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2303,7 +2277,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2326,13 +2300,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2383,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2400,7 +2374,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2408,7 +2382,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>41</v>
@@ -2423,13 +2397,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2465,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>36</v>
@@ -2480,10 +2454,10 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>41</v>
@@ -2497,7 +2471,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2505,10 +2479,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>36</v>
@@ -2520,13 +2494,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2562,7 +2536,7 @@
         <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -2577,23 +2551,120 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI21">
+  <autoFilter ref="A1:AI22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2603,7 +2674,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
